--- a/projects/maintenance_industry_4_2024/dataset/training_data/Test conditions.xlsx
+++ b/projects/maintenance_industry_4_2024/dataset/training_data/Test conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\digital_twin_robot\projects\maintenance_industry_4_2024\dataset\training_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDABE11-6EED-4BA3-8E55-F1208B668B34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55ED0A-623F-4A65-AF1D-6FAE02403647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Test id</t>
   </si>
@@ -133,6 +133,66 @@
   </si>
   <si>
     <t>Move motor 6 -&gt; motor 1 sequentially.</t>
+  </si>
+  <si>
+    <t>20240529_122361</t>
+  </si>
+  <si>
+    <t>Turn motor 6 pad vertical</t>
+  </si>
+  <si>
+    <t>20240529_122994</t>
+  </si>
+  <si>
+    <t>20240529_123223</t>
+  </si>
+  <si>
+    <t>Turn motor 6 mouse vertical</t>
+  </si>
+  <si>
+    <t>20240529_123430</t>
+  </si>
+  <si>
+    <t>20240529_124333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfert goods </t>
+  </si>
+  <si>
+    <t>20240529_125896</t>
+  </si>
+  <si>
+    <t>Transfert goods avec chute cube et tension moteur 2</t>
+  </si>
+  <si>
+    <t>20240529_130680</t>
+  </si>
+  <si>
+    <t>Transfert goods avec chute cube</t>
+  </si>
+  <si>
+    <t>20240529_131085</t>
+  </si>
+  <si>
+    <t>Turn motor 4 pad vertical</t>
+  </si>
+  <si>
+    <t>20240529_131373</t>
+  </si>
+  <si>
+    <t>20240529_131558</t>
+  </si>
+  <si>
+    <t>Turn motor 1 pad vertical</t>
+  </si>
+  <si>
+    <t>20240529_131755</t>
+  </si>
+  <si>
+    <t>20240529_132509</t>
+  </si>
+  <si>
+    <t>20240529_133879</t>
   </si>
 </sst>
 </file>
@@ -450,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
@@ -724,6 +784,122 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
